--- a/QSExt/Resource/AKShareDBInfo.xlsx
+++ b/QSExt/Resource/AKShareDBInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18525" windowHeight="8220" activeTab="2"/>
+    <workbookView windowWidth="21540" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TableInfo" sheetId="3" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="ArgInfo" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TableInfo!$A$1:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TableInfo!$A$1:$F$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FactorInfo!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="206">
   <si>
     <t>TableName</t>
   </si>
@@ -40,19 +40,169 @@
     <t>Description</t>
   </si>
   <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>东方财富-个股-股票信息</t>
+  </si>
+  <si>
+    <t>stock_individual_info_em</t>
+  </si>
+  <si>
+    <t>NarrowTable</t>
+  </si>
+  <si>
+    <t>A股</t>
+  </si>
+  <si>
+    <t>http://quote.eastmoney.com/concept/sh603777.html?from=classic</t>
+  </si>
+  <si>
+    <t>实时行情数据-东财</t>
+  </si>
+  <si>
+    <t>stock_zh_a_spot_em</t>
+  </si>
+  <si>
+    <t>FeatureTable</t>
+  </si>
+  <si>
+    <t>http://quote.eastmoney.com/center/gridlist.html#hs_a_board</t>
+  </si>
+  <si>
+    <t>实时行情数据-新浪</t>
+  </si>
+  <si>
+    <t>stock_zh_a_spot</t>
+  </si>
+  <si>
+    <t>http://vip.stock.finance.sina.com.cn/mkt/#hs_a</t>
+  </si>
+  <si>
     <t>历史行情数据-东财</t>
   </si>
   <si>
     <t>stock_zh_a_hist</t>
   </si>
   <si>
-    <t>WideTable</t>
-  </si>
-  <si>
-    <t>{'多重映射':False}</t>
-  </si>
-  <si>
-    <t>A股</t>
+    <t>DTRangeTable</t>
+  </si>
+  <si>
+    <t>历史行情数据-新浪</t>
+  </si>
+  <si>
+    <t>stock_zh_a_daily</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/realstock/company/sh600006/nc.shtml</t>
+  </si>
+  <si>
+    <t>历史行情数据-网易</t>
+  </si>
+  <si>
+    <t>stock_zh_a_hist_163</t>
+  </si>
+  <si>
+    <t>http://quotes.money.163.com/trade/lsjysj_601318.html?year=2022&amp;season=2</t>
+  </si>
+  <si>
+    <t>分时数据-新浪</t>
+  </si>
+  <si>
+    <t>stock_zh_a_minute</t>
+  </si>
+  <si>
+    <t>http://finance.sina.com.cn/realstock/company/sh600519/nc.shtml</t>
+  </si>
+  <si>
+    <t>分时数据-东财</t>
+  </si>
+  <si>
+    <t>stock_zh_a_hist_min_em</t>
+  </si>
+  <si>
+    <t>盘前数据</t>
+  </si>
+  <si>
+    <t>stock_zh_a_hist_pre_min_em</t>
+  </si>
+  <si>
+    <t>单次返回指定当前交易日的股票分钟数据, 包含盘前分钟数据</t>
+  </si>
+  <si>
+    <t>历史分笔数据-腾讯</t>
+  </si>
+  <si>
+    <t>stock_zh_a_tick_tx</t>
+  </si>
+  <si>
+    <t>http://gu.qq.com/sz300494/gp/detail</t>
+  </si>
+  <si>
+    <t>历史分笔数据-网易</t>
+  </si>
+  <si>
+    <t>stock_zh_a_tick_163</t>
+  </si>
+  <si>
+    <t>http://quotes.money.163.com/trade/cjmx_000001.html#01b05</t>
+  </si>
+  <si>
+    <t>IPO受益股</t>
+  </si>
+  <si>
+    <t>stock_ipo_benefit_ths</t>
+  </si>
+  <si>
+    <t>http://data.10jqka.com.cn/ipo/syg/</t>
+  </si>
+  <si>
+    <t>两网及退市</t>
+  </si>
+  <si>
+    <t>stock_zh_a_stop_em</t>
+  </si>
+  <si>
+    <t>http://quote.eastmoney.com/center/gridlist.html#staq_net_board</t>
+  </si>
+  <si>
+    <t>股票指数-实时行情</t>
+  </si>
+  <si>
+    <t>stock_zh_index_spot</t>
+  </si>
+  <si>
+    <t>指数</t>
+  </si>
+  <si>
+    <t>http://vip.stock.finance.sina.com.cn/mkt/#hs_s</t>
+  </si>
+  <si>
+    <t>股票指数-历史行情-新浪</t>
+  </si>
+  <si>
+    <t>stock_zh_index_daily</t>
+  </si>
+  <si>
+    <t>https://finance.sina.com.cn/realstock/company/sz399552/nc.shtml</t>
+  </si>
+  <si>
+    <t>股票指数-历史行情-腾讯</t>
+  </si>
+  <si>
+    <t>stock_zh_index_daily_tx</t>
+  </si>
+  <si>
+    <t>http://gu.qq.com/sh000919/zs</t>
+  </si>
+  <si>
+    <t>企业社会责任</t>
+  </si>
+  <si>
+    <t>stock_zh_a_scr_report</t>
+  </si>
+  <si>
+    <t>http://stockdata.stock.hexun.com/zrbg/Plate.aspx?date=2010-12-31#</t>
   </si>
   <si>
     <t>FieldName</t>
@@ -139,21 +289,222 @@
     <t>换手率</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>FactorName</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>FactorValue</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>int64</t>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>最新价</t>
+  </si>
+  <si>
+    <t>今开</t>
+  </si>
+  <si>
+    <t>昨收</t>
+  </si>
+  <si>
+    <t>量比</t>
+  </si>
+  <si>
+    <t>市盈率-动态</t>
+  </si>
+  <si>
+    <t>市净率</t>
+  </si>
+  <si>
+    <t>总市值</t>
+  </si>
+  <si>
+    <t>流通市值</t>
+  </si>
+  <si>
+    <t>涨速</t>
+  </si>
+  <si>
+    <t>5分钟涨跌</t>
+  </si>
+  <si>
+    <t>60日涨跌幅</t>
+  </si>
+  <si>
+    <t>年初至今涨跌幅</t>
+  </si>
+  <si>
+    <t>买入</t>
+  </si>
+  <si>
+    <t>卖出</t>
+  </si>
+  <si>
+    <t>注意单位: 股</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>datetime64</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>成交量; 注意单位: 股</t>
+  </si>
+  <si>
+    <t>outstanding_share</t>
+  </si>
+  <si>
+    <t>流动股本; 注意单位: 股</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>换手率=成交量/流动股本</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>股票代码</t>
+  </si>
+  <si>
+    <t>前收盘</t>
+  </si>
+  <si>
+    <t>成交金额</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>成交时间</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>成交价格</t>
+  </si>
+  <si>
+    <t>价格变动</t>
+  </si>
+  <si>
+    <t>性质</t>
+  </si>
+  <si>
+    <t>买卖盘标记</t>
+  </si>
+  <si>
+    <t>成交价</t>
+  </si>
+  <si>
+    <t>股票简称</t>
+  </si>
+  <si>
+    <t>市值</t>
+  </si>
+  <si>
+    <t>参股家数</t>
+  </si>
+  <si>
+    <t>投资总额</t>
+  </si>
+  <si>
+    <t>投资占市值比</t>
+  </si>
+  <si>
+    <t>参股对象</t>
+  </si>
+  <si>
+    <t>注意单位: 万</t>
+  </si>
+  <si>
+    <t>新浪的数据开始时间, 不是证券上市时间</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>腾讯的数据开始时间, 不是证券上市时间</t>
+  </si>
+  <si>
+    <t>股票名称</t>
+  </si>
+  <si>
+    <t>总得分</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>股东责任</t>
+  </si>
+  <si>
+    <t>员工责任</t>
+  </si>
+  <si>
+    <t>供应商、客户和消费者权益责任</t>
+  </si>
+  <si>
+    <t>环境责任</t>
+  </si>
+  <si>
+    <t>社会责任</t>
+  </si>
+  <si>
     <t>ArgName</t>
   </si>
   <si>
     <t>DefaultValue</t>
   </si>
   <si>
+    <t>ArgInfo</t>
+  </si>
+  <si>
     <t>symbol</t>
   </si>
   <si>
     <t>str</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>symbol='603777'</t>
   </si>
   <si>
@@ -166,6 +517,9 @@
     <t>daily</t>
   </si>
   <si>
+    <t>{"arg_type": "SingleOption","option_range":["daily","weekly","monthly"]}</t>
+  </si>
+  <si>
     <t>period='daily'; choice of {'daily', 'weekly', 'monthly'}</t>
   </si>
   <si>
@@ -190,7 +544,100 @@
     <t>adjust</t>
   </si>
   <si>
+    <t>{"arg_type": "SingleOption","option_range":["","qfq","hfq"]}</t>
+  </si>
+  <si>
     <t>默认返回不复权的数据; qfq: 返回前复权后的数据; hfq: 返回后复权后的数据</t>
+  </si>
+  <si>
+    <t xml:space="preserve">symbol='sh600000'; 股票代码可以在ak.stock_zh_a_spot中获取 </t>
+  </si>
+  <si>
+    <t>start_date='20201103'; 开始查询的日期</t>
+  </si>
+  <si>
+    <t>end_date='20201116'; 结束查询的日期</t>
+  </si>
+  <si>
+    <t>{"arg_type": "SingleOption","option_range":["","qfq","hfq","qfq-factor","htq-factor"]}</t>
+  </si>
+  <si>
+    <t>默认返回不复权的数据; qfq: 返回前复权后的数据; hfq: 返回后复权后的数据; hfq-factor: 返回后复权因子; qfq-factor: 返回前复权因子</t>
+  </si>
+  <si>
+    <t>symbol='sh601318'; 股票代码可以在ak.stock_zh_a_spot中获取; 其中sh689009没有数据</t>
+  </si>
+  <si>
+    <t>symbol='sh000300'; 同日频率数据接口</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>{"arg_type": "SingleOption","option_range":["1","5","15","30","60"]}</t>
+  </si>
+  <si>
+    <t>period='1'; 获取1,5,15,30,60分钟的数据频率</t>
+  </si>
+  <si>
+    <t>adjust=""; 默认为空: 返回不复权的数据; qfq: 返回前复权后的数据; hfq: 返回后复权后的数据;</t>
+  </si>
+  <si>
+    <t>symbol='sh000300'; 股票代码</t>
+  </si>
+  <si>
+    <t>start_date="1979-09-01 09:32:00"; 日期时间; 默认返回所有数据</t>
+  </si>
+  <si>
+    <t>end_date="2222-01-01 09:32:00"; 日期时间; 默认返回所有数据</t>
+  </si>
+  <si>
+    <t>period='5'; choice of {'1', '5', '15', '30', '60'}; 其中 1 分钟数据返回近 5 个交易日数据且不复权</t>
+  </si>
+  <si>
+    <t>adjust=''; choice of {'', 'qfq', 'hfq'}; '': 不复权, 'qfq': 前复权, 'hfq': 后复权, 其中 1 分钟数据返回近 5 个交易日数据且不复权</t>
+  </si>
+  <si>
+    <t>symbol="000001"; 股票代码</t>
+  </si>
+  <si>
+    <t>start_date="09:00:00"; 时间; 默认返回所有数据</t>
+  </si>
+  <si>
+    <t>end_date="15:40:00"; 时间; 默认返回所有数据</t>
+  </si>
+  <si>
+    <t>symbol="sh600000"</t>
+  </si>
+  <si>
+    <t>trade_date</t>
+  </si>
+  <si>
+    <t>trade_date="20191011"</t>
+  </si>
+  <si>
+    <t>symbol="sh600000";</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>trade_date="20200408"</t>
+  </si>
+  <si>
+    <t>symbol="sz399552"</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>year="2018"; 需要获取的年份</t>
+  </si>
+  <si>
+    <t>need_page</t>
+  </si>
+  <si>
+    <t>need_page="10"; 需要获取的页数</t>
   </si>
 </sst>
 </file>
@@ -198,12 +645,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,15 +659,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,30 +735,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,14 +750,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,6 +769,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -303,61 +796,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,61 +812,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,7 +836,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,7 +896,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,67 +974,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,13 +986,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,6 +1003,48 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -596,24 +1078,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -625,30 +1089,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,209 +1106,210 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -1166,23 +1607,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.25" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="4" width="21.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="13.2" customWidth="1"/>
+    <col min="2" max="2" width="14.2666666666667" customWidth="1"/>
+    <col min="3" max="3" width="6.86666666666667" customWidth="1"/>
+    <col min="4" max="4" width="10.4666666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1201,28 +1646,291 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F2">
+  <autoFilter ref="A1:F5">
     <extLst/>
   </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" display="http://quote.eastmoney.com/concept/sh603777.html?from=classic"/>
+    <hyperlink ref="G3" r:id="rId2" display="http://quote.eastmoney.com/center/gridlist.html#hs_a_board"/>
+    <hyperlink ref="G5" r:id="rId1" display="http://quote.eastmoney.com/concept/sh603777.html?from=classic"/>
+    <hyperlink ref="G6" r:id="rId3" display="https://finance.sina.com.cn/realstock/company/sh600006/nc.shtml"/>
+    <hyperlink ref="G4" r:id="rId4" display="http://vip.stock.finance.sina.com.cn/mkt/#hs_a"/>
+    <hyperlink ref="G7" r:id="rId5" display="http://quotes.money.163.com/trade/lsjysj_601318.html?year=2022&amp;season=2"/>
+    <hyperlink ref="G8" r:id="rId6" display="http://finance.sina.com.cn/realstock/company/sh600519/nc.shtml"/>
+    <hyperlink ref="G9" r:id="rId1" display="http://quote.eastmoney.com/concept/sh603777.html?from=classic"/>
+    <hyperlink ref="G10" r:id="rId1" display="http://quote.eastmoney.com/concept/sh603777.html?from=classic"/>
+    <hyperlink ref="G11" r:id="rId7" display="http://gu.qq.com/sz300494/gp/detail"/>
+    <hyperlink ref="G12" r:id="rId8" display="http://quotes.money.163.com/trade/cjmx_000001.html#01b05"/>
+    <hyperlink ref="G13" r:id="rId9" display="http://data.10jqka.com.cn/ipo/syg/"/>
+    <hyperlink ref="G14" r:id="rId10" display="http://quote.eastmoney.com/center/gridlist.html#staq_net_board"/>
+    <hyperlink ref="G15" r:id="rId11" display="http://vip.stock.finance.sina.com.cn/mkt/#hs_s"/>
+    <hyperlink ref="G16" r:id="rId12" display="https://finance.sina.com.cn/realstock/company/sz399552/nc.shtml"/>
+    <hyperlink ref="G18" r:id="rId13" display="http://stockdata.stock.hexun.com/zrbg/Plate.aspx?date=2010-12-31#"/>
+    <hyperlink ref="G17" r:id="rId14" display="http://gu.qq.com/sh000919/zs"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1232,20 +1940,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D164" sqref="D164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="17.8755555555556" customWidth="1"/>
+    <col min="2" max="2" width="10.3733333333333" customWidth="1"/>
+    <col min="3" max="3" width="11.5022222222222" customWidth="1"/>
+    <col min="4" max="4" width="12.5022222222222" customWidth="1"/>
+    <col min="5" max="5" width="14.8755555555556" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1244444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:6">
@@ -1253,16 +1961,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -1270,189 +1978,2671 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51" t="s">
+        <v>67</v>
+      </c>
+      <c r="F51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" t="s">
+        <v>71</v>
+      </c>
+      <c r="F52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" t="s">
+        <v>71</v>
+      </c>
+      <c r="F54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" t="s">
+        <v>71</v>
+      </c>
+      <c r="F55" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" t="s">
+        <v>71</v>
+      </c>
+      <c r="F56" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" t="s">
+        <v>71</v>
+      </c>
+      <c r="F57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F58" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59" t="s">
+        <v>67</v>
+      </c>
+      <c r="F59" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60" t="s">
+        <v>96</v>
+      </c>
+      <c r="F60" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C61" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" t="s">
+        <v>71</v>
+      </c>
+      <c r="F61" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" t="s">
+        <v>71</v>
+      </c>
+      <c r="F62" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" t="s">
+        <v>71</v>
+      </c>
+      <c r="F63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" t="s">
+        <v>70</v>
+      </c>
+      <c r="D64" t="s">
+        <v>71</v>
+      </c>
+      <c r="F64" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" t="s">
+        <v>71</v>
+      </c>
+      <c r="F65" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" t="s">
+        <v>71</v>
+      </c>
+      <c r="F66" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" t="s">
+        <v>71</v>
+      </c>
+      <c r="F67" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" t="s">
+        <v>70</v>
+      </c>
+      <c r="D68" t="s">
+        <v>71</v>
+      </c>
+      <c r="F68" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" t="s">
+        <v>70</v>
+      </c>
+      <c r="D69" t="s">
+        <v>71</v>
+      </c>
+      <c r="F69" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" t="s">
+        <v>70</v>
+      </c>
+      <c r="D70" t="s">
+        <v>71</v>
+      </c>
+      <c r="F70" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" t="s">
+        <v>70</v>
+      </c>
+      <c r="D71" t="s">
+        <v>71</v>
+      </c>
+      <c r="F71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72" t="s">
+        <v>104</v>
+      </c>
+      <c r="C72" t="s">
+        <v>70</v>
+      </c>
+      <c r="D72" t="s">
+        <v>71</v>
+      </c>
+      <c r="F72" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" t="s">
+        <v>70</v>
+      </c>
+      <c r="D73" t="s">
+        <v>71</v>
+      </c>
+      <c r="F73" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" t="s">
+        <v>129</v>
+      </c>
+      <c r="C74" t="s">
+        <v>66</v>
+      </c>
+      <c r="D74" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75" t="s">
+        <v>115</v>
+      </c>
+      <c r="C75" t="s">
+        <v>70</v>
+      </c>
+      <c r="D75" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" t="s">
+        <v>116</v>
+      </c>
+      <c r="C76" t="s">
+        <v>70</v>
+      </c>
+      <c r="D76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77" t="s">
+        <v>117</v>
+      </c>
+      <c r="C77" t="s">
+        <v>70</v>
+      </c>
+      <c r="D77" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78" t="s">
+        <v>118</v>
+      </c>
+      <c r="C78" t="s">
+        <v>70</v>
+      </c>
+      <c r="D78" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79" t="s">
+        <v>119</v>
+      </c>
+      <c r="C79" t="s">
+        <v>70</v>
+      </c>
+      <c r="D79" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>31</v>
+      </c>
+      <c r="B80" t="s">
+        <v>130</v>
+      </c>
+      <c r="C80" t="s">
+        <v>66</v>
+      </c>
+      <c r="D80" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>31</v>
+      </c>
+      <c r="B81" t="s">
+        <v>69</v>
+      </c>
+      <c r="C81" t="s">
+        <v>70</v>
+      </c>
+      <c r="D81" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>31</v>
+      </c>
+      <c r="B82" t="s">
+        <v>73</v>
+      </c>
+      <c r="C82" t="s">
+        <v>70</v>
+      </c>
+      <c r="D82" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>31</v>
+      </c>
+      <c r="B83" t="s">
+        <v>75</v>
+      </c>
+      <c r="C83" t="s">
+        <v>70</v>
+      </c>
+      <c r="D83" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>31</v>
+      </c>
+      <c r="B84" t="s">
+        <v>77</v>
+      </c>
+      <c r="C84" t="s">
+        <v>70</v>
+      </c>
+      <c r="D84" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>31</v>
+      </c>
+      <c r="B85" t="s">
+        <v>79</v>
+      </c>
+      <c r="C85" t="s">
+        <v>70</v>
+      </c>
+      <c r="D85" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>31</v>
+      </c>
+      <c r="B86" t="s">
+        <v>82</v>
+      </c>
+      <c r="C86" t="s">
+        <v>70</v>
+      </c>
+      <c r="D86" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>31</v>
+      </c>
+      <c r="B87" t="s">
+        <v>98</v>
+      </c>
+      <c r="C87" t="s">
+        <v>70</v>
+      </c>
+      <c r="D87" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88" t="s">
+        <v>130</v>
+      </c>
+      <c r="C88" t="s">
+        <v>66</v>
+      </c>
+      <c r="D88" t="s">
+        <v>67</v>
+      </c>
+      <c r="F88" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>33</v>
+      </c>
+      <c r="B89" t="s">
+        <v>69</v>
+      </c>
+      <c r="C89" t="s">
+        <v>70</v>
+      </c>
+      <c r="D89" t="s">
+        <v>71</v>
+      </c>
+      <c r="F89" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>33</v>
+      </c>
+      <c r="B90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C90" t="s">
+        <v>70</v>
+      </c>
+      <c r="D90" t="s">
+        <v>71</v>
+      </c>
+      <c r="F90" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>33</v>
+      </c>
+      <c r="B91" t="s">
+        <v>75</v>
+      </c>
+      <c r="C91" t="s">
+        <v>70</v>
+      </c>
+      <c r="D91" t="s">
+        <v>71</v>
+      </c>
+      <c r="F91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>33</v>
+      </c>
+      <c r="B92" t="s">
+        <v>77</v>
+      </c>
+      <c r="C92" t="s">
+        <v>70</v>
+      </c>
+      <c r="D92" t="s">
+        <v>71</v>
+      </c>
+      <c r="F92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>33</v>
+      </c>
+      <c r="B93" t="s">
+        <v>79</v>
+      </c>
+      <c r="C93" t="s">
+        <v>70</v>
+      </c>
+      <c r="D93" t="s">
+        <v>71</v>
+      </c>
+      <c r="F93" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>33</v>
+      </c>
+      <c r="B94" t="s">
+        <v>82</v>
+      </c>
+      <c r="C94" t="s">
+        <v>70</v>
+      </c>
+      <c r="D94" t="s">
+        <v>71</v>
+      </c>
+      <c r="F94" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95" t="s">
+        <v>98</v>
+      </c>
+      <c r="C95" t="s">
+        <v>70</v>
+      </c>
+      <c r="D95" t="s">
+        <v>71</v>
+      </c>
+      <c r="F95" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>36</v>
+      </c>
+      <c r="B96" t="s">
+        <v>131</v>
+      </c>
+      <c r="C96" t="s">
+        <v>66</v>
+      </c>
+      <c r="D96" t="s">
+        <v>132</v>
+      </c>
+      <c r="F96" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>36</v>
+      </c>
+      <c r="B97" t="s">
+        <v>133</v>
+      </c>
+      <c r="C97" t="s">
+        <v>70</v>
+      </c>
+      <c r="D97" t="s">
+        <v>71</v>
+      </c>
+      <c r="F97" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>36</v>
+      </c>
+      <c r="B98" t="s">
+        <v>134</v>
+      </c>
+      <c r="C98" t="s">
+        <v>70</v>
+      </c>
+      <c r="D98" t="s">
+        <v>71</v>
+      </c>
+      <c r="F98" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>36</v>
+      </c>
+      <c r="B99" t="s">
+        <v>79</v>
+      </c>
+      <c r="C99" t="s">
+        <v>80</v>
+      </c>
+      <c r="D99" t="s">
+        <v>71</v>
+      </c>
+      <c r="F99" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>36</v>
+      </c>
+      <c r="B100" t="s">
+        <v>82</v>
+      </c>
+      <c r="C100" t="s">
+        <v>80</v>
+      </c>
+      <c r="D100" t="s">
+        <v>71</v>
+      </c>
+      <c r="F100" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>36</v>
+      </c>
+      <c r="B101" t="s">
+        <v>135</v>
+      </c>
+      <c r="C101" t="s">
+        <v>66</v>
+      </c>
+      <c r="D101" t="s">
+        <v>71</v>
+      </c>
+      <c r="F101" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>39</v>
+      </c>
+      <c r="B102" t="s">
+        <v>130</v>
+      </c>
+      <c r="C102" t="s">
+        <v>66</v>
+      </c>
+      <c r="D102" t="s">
+        <v>132</v>
+      </c>
+      <c r="F102" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>39</v>
+      </c>
+      <c r="B103" t="s">
+        <v>137</v>
+      </c>
+      <c r="C103" t="s">
+        <v>70</v>
+      </c>
+      <c r="D103" t="s">
+        <v>71</v>
+      </c>
+      <c r="F103" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>39</v>
+      </c>
+      <c r="B104" t="s">
+        <v>134</v>
+      </c>
+      <c r="C104" t="s">
+        <v>70</v>
+      </c>
+      <c r="D104" t="s">
+        <v>71</v>
+      </c>
+      <c r="F104" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>39</v>
+      </c>
+      <c r="B105" t="s">
+        <v>79</v>
+      </c>
+      <c r="C105" t="s">
+        <v>94</v>
+      </c>
+      <c r="D105" t="s">
+        <v>71</v>
+      </c>
+      <c r="F105" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>39</v>
+      </c>
+      <c r="B106" t="s">
+        <v>82</v>
+      </c>
+      <c r="C106" t="s">
+        <v>70</v>
+      </c>
+      <c r="D106" t="s">
+        <v>71</v>
+      </c>
+      <c r="F106" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>39</v>
+      </c>
+      <c r="B107" t="s">
+        <v>135</v>
+      </c>
+      <c r="C107" t="s">
+        <v>66</v>
+      </c>
+      <c r="D107" t="s">
+        <v>71</v>
+      </c>
+      <c r="F107" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>42</v>
+      </c>
+      <c r="B108" t="s">
+        <v>93</v>
+      </c>
+      <c r="C108" t="s">
+        <v>94</v>
+      </c>
+      <c r="D108" t="s">
+        <v>71</v>
+      </c>
+      <c r="F108" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>42</v>
+      </c>
+      <c r="B109" t="s">
+        <v>126</v>
+      </c>
+      <c r="C109" t="s">
+        <v>66</v>
+      </c>
+      <c r="D109" t="s">
+        <v>96</v>
+      </c>
+      <c r="F109" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>42</v>
+      </c>
+      <c r="B110" t="s">
+        <v>138</v>
+      </c>
+      <c r="C110" t="s">
+        <v>66</v>
+      </c>
+      <c r="D110" t="s">
+        <v>71</v>
+      </c>
+      <c r="F110" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>42</v>
+      </c>
+      <c r="B111" t="s">
+        <v>74</v>
+      </c>
+      <c r="C111" t="s">
+        <v>70</v>
+      </c>
+      <c r="D111" t="s">
+        <v>71</v>
+      </c>
+      <c r="F111" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>42</v>
+      </c>
+      <c r="B112" t="s">
+        <v>86</v>
+      </c>
+      <c r="C112" t="s">
+        <v>70</v>
+      </c>
+      <c r="D112" t="s">
+        <v>71</v>
+      </c>
+      <c r="F112" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>42</v>
+      </c>
+      <c r="B113" t="s">
+        <v>139</v>
+      </c>
+      <c r="C113" t="s">
+        <v>66</v>
+      </c>
+      <c r="D113" t="s">
+        <v>71</v>
+      </c>
+      <c r="F113" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>42</v>
+      </c>
+      <c r="B114" t="s">
+        <v>140</v>
+      </c>
+      <c r="C114" t="s">
+        <v>94</v>
+      </c>
+      <c r="D114" t="s">
+        <v>71</v>
+      </c>
+      <c r="F114" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>42</v>
+      </c>
+      <c r="B115" t="s">
+        <v>141</v>
+      </c>
+      <c r="C115" t="s">
+        <v>66</v>
+      </c>
+      <c r="D115" t="s">
+        <v>71</v>
+      </c>
+      <c r="F115" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>42</v>
+      </c>
+      <c r="B116" t="s">
+        <v>142</v>
+      </c>
+      <c r="C116" t="s">
+        <v>70</v>
+      </c>
+      <c r="D116" t="s">
+        <v>71</v>
+      </c>
+      <c r="F116" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>42</v>
+      </c>
+      <c r="B117" t="s">
+        <v>143</v>
+      </c>
+      <c r="C117" t="s">
+        <v>66</v>
+      </c>
+      <c r="D117" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>45</v>
+      </c>
+      <c r="B118" t="s">
+        <v>93</v>
+      </c>
+      <c r="C118" t="s">
+        <v>94</v>
+      </c>
+      <c r="D118" t="s">
+        <v>71</v>
+      </c>
+      <c r="F118" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>45</v>
+      </c>
+      <c r="B119" t="s">
+        <v>95</v>
+      </c>
+      <c r="C119" t="s">
+        <v>66</v>
+      </c>
+      <c r="D119" t="s">
+        <v>96</v>
+      </c>
+      <c r="F119" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>45</v>
+      </c>
+      <c r="B120" t="s">
+        <v>97</v>
+      </c>
+      <c r="C120" t="s">
+        <v>66</v>
+      </c>
+      <c r="D120" t="s">
+        <v>71</v>
+      </c>
+      <c r="F120" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>45</v>
+      </c>
+      <c r="B121" t="s">
+        <v>98</v>
+      </c>
+      <c r="C121" t="s">
+        <v>70</v>
+      </c>
+      <c r="D121" t="s">
+        <v>71</v>
+      </c>
+      <c r="F121" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>45</v>
+      </c>
+      <c r="B122" t="s">
+        <v>86</v>
+      </c>
+      <c r="C122" t="s">
+        <v>70</v>
+      </c>
+      <c r="D122" t="s">
+        <v>71</v>
+      </c>
+      <c r="F122" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>45</v>
+      </c>
+      <c r="B123" t="s">
+        <v>87</v>
+      </c>
+      <c r="C123" t="s">
+        <v>70</v>
+      </c>
+      <c r="D123" t="s">
+        <v>71</v>
+      </c>
+      <c r="F123" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>45</v>
+      </c>
+      <c r="B124" t="s">
+        <v>79</v>
+      </c>
+      <c r="C124" t="s">
+        <v>70</v>
+      </c>
+      <c r="D124" t="s">
+        <v>71</v>
+      </c>
+      <c r="F124" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>45</v>
+      </c>
+      <c r="B125" t="s">
+        <v>82</v>
+      </c>
+      <c r="C125" t="s">
+        <v>70</v>
+      </c>
+      <c r="D125" t="s">
+        <v>71</v>
+      </c>
+      <c r="F125" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>45</v>
+      </c>
+      <c r="B126" t="s">
+        <v>84</v>
+      </c>
+      <c r="C126" t="s">
+        <v>70</v>
+      </c>
+      <c r="D126" t="s">
+        <v>71</v>
+      </c>
+      <c r="F126" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>45</v>
+      </c>
+      <c r="B127" t="s">
+        <v>75</v>
+      </c>
+      <c r="C127" t="s">
+        <v>70</v>
+      </c>
+      <c r="D127" t="s">
+        <v>71</v>
+      </c>
+      <c r="F127" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>45</v>
+      </c>
+      <c r="B128" t="s">
+        <v>77</v>
+      </c>
+      <c r="C128" t="s">
+        <v>70</v>
+      </c>
+      <c r="D128" t="s">
+        <v>71</v>
+      </c>
+      <c r="F128" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>45</v>
+      </c>
+      <c r="B129" t="s">
+        <v>99</v>
+      </c>
+      <c r="C129" t="s">
+        <v>70</v>
+      </c>
+      <c r="D129" t="s">
+        <v>71</v>
+      </c>
+      <c r="F129" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>45</v>
+      </c>
+      <c r="B130" t="s">
+        <v>100</v>
+      </c>
+      <c r="C130" t="s">
+        <v>70</v>
+      </c>
+      <c r="D130" t="s">
+        <v>71</v>
+      </c>
+      <c r="F130" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>45</v>
+      </c>
+      <c r="B131" t="s">
+        <v>101</v>
+      </c>
+      <c r="C131" t="s">
+        <v>70</v>
+      </c>
+      <c r="D131" t="s">
+        <v>71</v>
+      </c>
+      <c r="F131" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>45</v>
+      </c>
+      <c r="B132" t="s">
+        <v>88</v>
+      </c>
+      <c r="C132" t="s">
+        <v>70</v>
+      </c>
+      <c r="D132" t="s">
+        <v>71</v>
+      </c>
+      <c r="F132" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>45</v>
+      </c>
+      <c r="B133" t="s">
+        <v>102</v>
+      </c>
+      <c r="C133" t="s">
+        <v>70</v>
+      </c>
+      <c r="D133" t="s">
+        <v>71</v>
+      </c>
+      <c r="F133" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>45</v>
+      </c>
+      <c r="B134" t="s">
+        <v>103</v>
+      </c>
+      <c r="C134" t="s">
+        <v>70</v>
+      </c>
+      <c r="D134" t="s">
+        <v>71</v>
+      </c>
+      <c r="F134" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>48</v>
+      </c>
+      <c r="B135" t="s">
+        <v>95</v>
+      </c>
+      <c r="C135" t="s">
+        <v>66</v>
+      </c>
+      <c r="D135" t="s">
+        <v>96</v>
+      </c>
+      <c r="F135" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>48</v>
+      </c>
+      <c r="B136" t="s">
+        <v>97</v>
+      </c>
+      <c r="C136" t="s">
+        <v>66</v>
+      </c>
+      <c r="D136" t="s">
+        <v>71</v>
+      </c>
+      <c r="F136" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>48</v>
+      </c>
+      <c r="B137" t="s">
+        <v>98</v>
+      </c>
+      <c r="C137" t="s">
+        <v>70</v>
+      </c>
+      <c r="D137" t="s">
+        <v>71</v>
+      </c>
+      <c r="F137" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>48</v>
+      </c>
+      <c r="B138" t="s">
+        <v>87</v>
+      </c>
+      <c r="C138" t="s">
+        <v>70</v>
+      </c>
+      <c r="D138" t="s">
+        <v>71</v>
+      </c>
+      <c r="F138" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>48</v>
+      </c>
+      <c r="B139" t="s">
+        <v>86</v>
+      </c>
+      <c r="C139" t="s">
+        <v>70</v>
+      </c>
+      <c r="D139" t="s">
+        <v>71</v>
+      </c>
+      <c r="F139" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>48</v>
+      </c>
+      <c r="B140" t="s">
+        <v>100</v>
+      </c>
+      <c r="C140" t="s">
+        <v>70</v>
+      </c>
+      <c r="D140" t="s">
+        <v>71</v>
+      </c>
+      <c r="F140" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>48</v>
+      </c>
+      <c r="B141" t="s">
+        <v>99</v>
+      </c>
+      <c r="C141" t="s">
+        <v>70</v>
+      </c>
+      <c r="D141" t="s">
+        <v>71</v>
+      </c>
+      <c r="F141" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>48</v>
+      </c>
+      <c r="B142" t="s">
+        <v>75</v>
+      </c>
+      <c r="C142" t="s">
+        <v>70</v>
+      </c>
+      <c r="D142" t="s">
+        <v>71</v>
+      </c>
+      <c r="F142" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>48</v>
+      </c>
+      <c r="B143" t="s">
+        <v>77</v>
+      </c>
+      <c r="C143" t="s">
+        <v>70</v>
+      </c>
+      <c r="D143" t="s">
+        <v>71</v>
+      </c>
+      <c r="F143" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>48</v>
+      </c>
+      <c r="B144" t="s">
+        <v>79</v>
+      </c>
+      <c r="C144" t="s">
+        <v>70</v>
+      </c>
+      <c r="D144" t="s">
+        <v>71</v>
+      </c>
+      <c r="F144" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>48</v>
+      </c>
+      <c r="B145" t="s">
+        <v>82</v>
+      </c>
+      <c r="C145" t="s">
+        <v>70</v>
+      </c>
+      <c r="D145" t="s">
+        <v>71</v>
+      </c>
+      <c r="F145" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>52</v>
+      </c>
+      <c r="B146" t="s">
+        <v>113</v>
+      </c>
+      <c r="C146" t="s">
+        <v>66</v>
+      </c>
+      <c r="D146" t="s">
+        <v>67</v>
+      </c>
+      <c r="F146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>52</v>
+      </c>
+      <c r="B147" t="s">
+        <v>115</v>
+      </c>
+      <c r="C147" t="s">
+        <v>70</v>
+      </c>
+      <c r="D147" t="s">
+        <v>71</v>
+      </c>
+      <c r="F147" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>52</v>
+      </c>
+      <c r="B148" t="s">
+        <v>118</v>
+      </c>
+      <c r="C148" t="s">
+        <v>70</v>
+      </c>
+      <c r="D148" t="s">
+        <v>71</v>
+      </c>
+      <c r="F148" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>52</v>
+      </c>
+      <c r="B149" t="s">
+        <v>116</v>
+      </c>
+      <c r="C149" t="s">
+        <v>70</v>
+      </c>
+      <c r="D149" t="s">
+        <v>71</v>
+      </c>
+      <c r="F149" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>52</v>
+      </c>
+      <c r="B150" t="s">
+        <v>117</v>
+      </c>
+      <c r="C150" t="s">
+        <v>70</v>
+      </c>
+      <c r="D150" t="s">
+        <v>71</v>
+      </c>
+      <c r="F150" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>52</v>
+      </c>
+      <c r="B151" t="s">
+        <v>146</v>
+      </c>
+      <c r="C151" t="s">
+        <v>70</v>
+      </c>
+      <c r="D151" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>55</v>
+      </c>
+      <c r="B152" t="s">
+        <v>113</v>
+      </c>
+      <c r="C152" t="s">
+        <v>66</v>
+      </c>
+      <c r="D152" t="s">
+        <v>67</v>
+      </c>
+      <c r="F152" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>55</v>
+      </c>
+      <c r="B153" t="s">
+        <v>115</v>
+      </c>
+      <c r="C153" t="s">
+        <v>70</v>
+      </c>
+      <c r="D153" t="s">
+        <v>71</v>
+      </c>
+      <c r="F153" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>55</v>
+      </c>
+      <c r="B154" t="s">
+        <v>118</v>
+      </c>
+      <c r="C154" t="s">
+        <v>70</v>
+      </c>
+      <c r="D154" t="s">
+        <v>71</v>
+      </c>
+      <c r="F154" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>55</v>
+      </c>
+      <c r="B155" t="s">
+        <v>116</v>
+      </c>
+      <c r="C155" t="s">
+        <v>70</v>
+      </c>
+      <c r="D155" t="s">
+        <v>71</v>
+      </c>
+      <c r="F155" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>55</v>
+      </c>
+      <c r="B156" t="s">
+        <v>117</v>
+      </c>
+      <c r="C156" t="s">
+        <v>70</v>
+      </c>
+      <c r="D156" t="s">
+        <v>71</v>
+      </c>
+      <c r="F156" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>55</v>
+      </c>
+      <c r="B157" t="s">
+        <v>146</v>
+      </c>
+      <c r="C157" t="s">
+        <v>70</v>
+      </c>
+      <c r="D157" t="s">
+        <v>71</v>
+      </c>
+      <c r="F157" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>58</v>
+      </c>
+      <c r="B158" t="s">
+        <v>93</v>
+      </c>
+      <c r="C158" t="s">
+        <v>94</v>
+      </c>
+      <c r="D158" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>58</v>
+      </c>
+      <c r="B159" t="s">
+        <v>148</v>
+      </c>
+      <c r="C159" t="s">
+        <v>66</v>
+      </c>
+      <c r="D159" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>58</v>
+      </c>
+      <c r="B160" t="s">
+        <v>126</v>
+      </c>
+      <c r="C160" t="s">
+        <v>66</v>
+      </c>
+      <c r="D160" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>58</v>
+      </c>
+      <c r="B161" t="s">
+        <v>149</v>
+      </c>
+      <c r="C161" t="s">
+        <v>70</v>
+      </c>
+      <c r="D161" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>58</v>
+      </c>
+      <c r="B162" t="s">
+        <v>150</v>
+      </c>
+      <c r="C162" t="s">
+        <v>66</v>
+      </c>
+      <c r="D162" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>58</v>
+      </c>
+      <c r="B163" t="s">
+        <v>151</v>
+      </c>
+      <c r="C163" t="s">
+        <v>70</v>
+      </c>
+      <c r="D163" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>58</v>
+      </c>
+      <c r="B164" t="s">
+        <v>152</v>
+      </c>
+      <c r="C164" t="s">
+        <v>70</v>
+      </c>
+      <c r="D164" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>58</v>
+      </c>
+      <c r="B165" t="s">
+        <v>153</v>
+      </c>
+      <c r="C165" t="s">
+        <v>70</v>
+      </c>
+      <c r="D165" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>58</v>
+      </c>
+      <c r="B166" t="s">
+        <v>154</v>
+      </c>
+      <c r="C166" t="s">
+        <v>70</v>
+      </c>
+      <c r="D166" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>58</v>
+      </c>
+      <c r="B167" t="s">
+        <v>155</v>
+      </c>
+      <c r="C167" t="s">
+        <v>70</v>
+      </c>
+      <c r="D167" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1468,21 +4658,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.25" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="9.375" customWidth="1"/>
-    <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="74.375" customWidth="1"/>
+    <col min="1" max="1" width="18.2488888888889" customWidth="1"/>
+    <col min="2" max="2" width="11.5022222222222" customWidth="1"/>
+    <col min="3" max="3" width="9.37333333333333" customWidth="1"/>
+    <col min="4" max="4" width="10.3733333333333" customWidth="1"/>
+    <col min="5" max="5" width="7.26666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="7" max="7" width="74.3733333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1490,19 +4680,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -1510,99 +4700,621 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2">
+        <v>96</v>
+      </c>
+      <c r="E2" s="1">
         <v>603777</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
+        <v>163</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" t="s">
+        <v>165</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4">
+        <v>168</v>
+      </c>
+      <c r="E4" s="1">
         <v>20210301</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5">
+        <v>171</v>
+      </c>
+      <c r="E5" s="1">
         <v>20210616</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="1">
+        <v>603777</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="1">
+        <v>603777</v>
+      </c>
+      <c r="G8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="1">
+        <v>20210301</v>
+      </c>
+      <c r="G9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" s="1">
+        <v>20210616</v>
+      </c>
+      <c r="G10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="1">
+        <v>603777</v>
+      </c>
+      <c r="G12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" s="1">
+        <v>20210301</v>
+      </c>
+      <c r="G13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" t="s">
+        <v>171</v>
+      </c>
+      <c r="E14" s="1">
+        <v>20210616</v>
+      </c>
+      <c r="G14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" t="s">
+        <v>163</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F16" t="s">
+        <v>184</v>
+      </c>
+      <c r="G16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="1">
+        <v>603777</v>
+      </c>
+      <c r="G18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" s="1">
+        <v>20210301</v>
+      </c>
+      <c r="G19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" t="s">
+        <v>171</v>
+      </c>
+      <c r="E20" s="1">
+        <v>20210616</v>
+      </c>
+      <c r="G20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F21" t="s">
+        <v>184</v>
+      </c>
+      <c r="G21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="1">
+        <v>603777</v>
+      </c>
+      <c r="G23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24" s="1">
+        <v>20210301</v>
+      </c>
+      <c r="G24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" t="s">
+        <v>171</v>
+      </c>
+      <c r="E25" s="1">
+        <v>20210616</v>
+      </c>
+      <c r="G25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>196</v>
+      </c>
+      <c r="C27" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>196</v>
+      </c>
+      <c r="C29" t="s">
+        <v>199</v>
+      </c>
+      <c r="D29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
         <v>55</v>
       </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" t="s">
-        <v>56</v>
+      <c r="B31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>202</v>
+      </c>
+      <c r="C32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32" t="s">
+        <v>163</v>
+      </c>
+      <c r="G32" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s">
+        <v>204</v>
+      </c>
+      <c r="C33" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" t="s">
+        <v>163</v>
+      </c>
+      <c r="G33" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/QSExt/Resource/AKShareDBInfo.xlsx
+++ b/QSExt/Resource/AKShareDBInfo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="225">
   <si>
     <t>TableName</t>
   </si>
@@ -205,6 +205,33 @@
     <t>http://stockdata.stock.hexun.com/zrbg/Plate.aspx?date=2010-12-31#</t>
   </si>
   <si>
+    <t>两市停复牌</t>
+  </si>
+  <si>
+    <t>stock_tfp_em</t>
+  </si>
+  <si>
+    <t>DTTable</t>
+  </si>
+  <si>
+    <t>东方财富网-数据中心-特色数据-两市停复牌</t>
+  </si>
+  <si>
+    <t>http://data.eastmoney.com/tfpxx/</t>
+  </si>
+  <si>
+    <t>停复牌</t>
+  </si>
+  <si>
+    <t>news_trade_notify_suspend_baidu</t>
+  </si>
+  <si>
+    <t>百度股市通-交易提醒-停复牌</t>
+  </si>
+  <si>
+    <t>https://gushitong.baidu.com/calendar</t>
+  </si>
+  <si>
     <t>FieldName</t>
   </si>
   <si>
@@ -490,6 +517,33 @@
     <t>社会责任</t>
   </si>
   <si>
+    <t>停牌时间</t>
+  </si>
+  <si>
+    <t>停牌截止时间</t>
+  </si>
+  <si>
+    <t>停牌期限</t>
+  </si>
+  <si>
+    <t>停牌原因</t>
+  </si>
+  <si>
+    <t>所属市场</t>
+  </si>
+  <si>
+    <t>预计复牌时间</t>
+  </si>
+  <si>
+    <t>交易所</t>
+  </si>
+  <si>
+    <t>复牌时间</t>
+  </si>
+  <si>
+    <t>停牌事项说明</t>
+  </si>
+  <si>
     <t>ArgName</t>
   </si>
   <si>
@@ -638,6 +692,9 @@
   </si>
   <si>
     <t>need_page="10"; 需要获取的页数</t>
+  </si>
+  <si>
+    <t>date="20220523"</t>
   </si>
 </sst>
 </file>
@@ -645,10 +702,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -674,18 +731,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -697,9 +754,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,29 +776,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -750,38 +786,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -797,7 +802,59 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -812,7 +869,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,19 +959,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,7 +1031,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,139 +1043,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,6 +1090,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1064,21 +1147,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1092,108 +1160,97 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1202,28 +1259,28 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1235,29 +1292,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1607,14 +1665,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -1906,6 +1964,46 @@
       </c>
       <c r="G18" s="4" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1930,6 +2028,8 @@
     <hyperlink ref="G16" r:id="rId12" display="https://finance.sina.com.cn/realstock/company/sz399552/nc.shtml"/>
     <hyperlink ref="G18" r:id="rId13" display="http://stockdata.stock.hexun.com/zrbg/Plate.aspx?date=2010-12-31#"/>
     <hyperlink ref="G17" r:id="rId14" display="http://gu.qq.com/sh000919/zs"/>
+    <hyperlink ref="G19" r:id="rId15" display="http://data.eastmoney.com/tfpxx/"/>
+    <hyperlink ref="G20" r:id="rId16" display="https://gushitong.baidu.com/calendar"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1940,10 +2040,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F167"/>
+  <dimension ref="A1:F182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D164" sqref="D164"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="E166" sqref="E166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1961,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -1981,16 +2081,16 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1998,16 +2098,16 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2015,16 +2115,16 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2032,16 +2132,16 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2049,16 +2149,16 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2066,16 +2166,16 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2083,16 +2183,16 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2100,16 +2200,16 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2117,16 +2217,16 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2134,16 +2234,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2151,16 +2251,16 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2168,13 +2268,13 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2182,13 +2282,13 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2196,13 +2296,13 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2210,13 +2310,13 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2224,13 +2324,13 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2238,13 +2338,13 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2252,16 +2352,16 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2269,13 +2369,13 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2283,16 +2383,16 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2300,16 +2400,16 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2317,16 +2417,16 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2334,13 +2434,13 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2348,13 +2448,13 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2362,13 +2462,13 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2376,13 +2476,13 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2390,13 +2490,13 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2404,16 +2504,16 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F29" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2421,13 +2521,13 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2435,13 +2535,13 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2449,16 +2549,16 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F32" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2466,16 +2566,16 @@
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F33" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2483,13 +2583,13 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2497,16 +2597,16 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F35" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2514,16 +2614,16 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D36" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F36" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2531,16 +2631,16 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D37" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F37" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2548,13 +2648,13 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2562,13 +2662,13 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D39" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2576,13 +2676,13 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C40" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D40" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2590,13 +2690,13 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C41" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D41" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2604,16 +2704,16 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D42" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F42" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2621,13 +2721,13 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C43" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D43" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2635,13 +2735,13 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C44" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D44" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2649,13 +2749,13 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C45" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2663,13 +2763,13 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D46" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2677,13 +2777,13 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D47" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2691,13 +2791,13 @@
         <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D48" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2705,16 +2805,16 @@
         <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D49" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F49" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2722,16 +2822,16 @@
         <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C50" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D50" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F50" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2739,16 +2839,16 @@
         <v>22</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C51" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D51" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F51" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2756,16 +2856,16 @@
         <v>22</v>
       </c>
       <c r="B52" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C52" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D52" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F52" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2773,16 +2873,16 @@
         <v>22</v>
       </c>
       <c r="B53" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C53" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D53" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F53" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2790,16 +2890,16 @@
         <v>22</v>
       </c>
       <c r="B54" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C54" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D54" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F54" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2807,16 +2907,16 @@
         <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C55" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D55" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F55" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2824,16 +2924,16 @@
         <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C56" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D56" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F56" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2841,16 +2941,16 @@
         <v>22</v>
       </c>
       <c r="B57" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D57" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F57" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2858,16 +2958,16 @@
         <v>22</v>
       </c>
       <c r="B58" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D58" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F58" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2875,16 +2975,16 @@
         <v>25</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C59" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D59" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F59" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2892,16 +2992,16 @@
         <v>25</v>
       </c>
       <c r="B60" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C60" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D60" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F60" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2909,16 +3009,16 @@
         <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C61" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D61" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F61" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2926,16 +3026,16 @@
         <v>25</v>
       </c>
       <c r="B62" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C62" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D62" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F62" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2943,16 +3043,16 @@
         <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C63" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D63" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F63" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2960,16 +3060,16 @@
         <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C64" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D64" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F64" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2977,16 +3077,16 @@
         <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C65" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D65" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F65" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2994,16 +3094,16 @@
         <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C66" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D66" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F66" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3011,16 +3111,16 @@
         <v>25</v>
       </c>
       <c r="B67" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C67" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D67" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F67" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3028,16 +3128,16 @@
         <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C68" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D68" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F68" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3045,16 +3145,16 @@
         <v>25</v>
       </c>
       <c r="B69" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C69" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D69" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F69" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3062,16 +3162,16 @@
         <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C70" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D70" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F70" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3079,16 +3179,16 @@
         <v>25</v>
       </c>
       <c r="B71" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C71" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D71" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F71" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3096,16 +3196,16 @@
         <v>25</v>
       </c>
       <c r="B72" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C72" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D72" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F72" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3113,16 +3213,16 @@
         <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C73" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D73" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F73" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3130,13 +3230,13 @@
         <v>28</v>
       </c>
       <c r="B74" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C74" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D74" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3144,13 +3244,13 @@
         <v>28</v>
       </c>
       <c r="B75" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C75" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D75" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3158,13 +3258,13 @@
         <v>28</v>
       </c>
       <c r="B76" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C76" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D76" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3172,13 +3272,13 @@
         <v>28</v>
       </c>
       <c r="B77" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C77" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D77" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3186,13 +3286,13 @@
         <v>28</v>
       </c>
       <c r="B78" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C78" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D78" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3200,13 +3300,13 @@
         <v>28</v>
       </c>
       <c r="B79" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C79" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D79" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3214,13 +3314,13 @@
         <v>31</v>
       </c>
       <c r="B80" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C80" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D80" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3228,13 +3328,13 @@
         <v>31</v>
       </c>
       <c r="B81" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C81" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D81" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3242,13 +3342,13 @@
         <v>31</v>
       </c>
       <c r="B82" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D82" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3256,13 +3356,13 @@
         <v>31</v>
       </c>
       <c r="B83" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D83" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3270,13 +3370,13 @@
         <v>31</v>
       </c>
       <c r="B84" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D84" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3284,13 +3384,13 @@
         <v>31</v>
       </c>
       <c r="B85" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D85" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3298,13 +3398,13 @@
         <v>31</v>
       </c>
       <c r="B86" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C86" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D86" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3312,13 +3412,13 @@
         <v>31</v>
       </c>
       <c r="B87" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C87" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D87" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3326,16 +3426,16 @@
         <v>33</v>
       </c>
       <c r="B88" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C88" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D88" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F88" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3343,16 +3443,16 @@
         <v>33</v>
       </c>
       <c r="B89" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C89" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D89" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F89" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3360,16 +3460,16 @@
         <v>33</v>
       </c>
       <c r="B90" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C90" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D90" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F90" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3377,16 +3477,16 @@
         <v>33</v>
       </c>
       <c r="B91" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C91" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D91" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F91" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3394,16 +3494,16 @@
         <v>33</v>
       </c>
       <c r="B92" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C92" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D92" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F92" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3411,16 +3511,16 @@
         <v>33</v>
       </c>
       <c r="B93" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C93" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D93" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F93" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3428,16 +3528,16 @@
         <v>33</v>
       </c>
       <c r="B94" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C94" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D94" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F94" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3445,16 +3545,16 @@
         <v>33</v>
       </c>
       <c r="B95" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C95" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D95" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F95" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3462,16 +3562,16 @@
         <v>36</v>
       </c>
       <c r="B96" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C96" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D96" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F96" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3479,16 +3579,16 @@
         <v>36</v>
       </c>
       <c r="B97" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C97" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D97" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F97" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3496,16 +3596,16 @@
         <v>36</v>
       </c>
       <c r="B98" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C98" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D98" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F98" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3513,16 +3613,16 @@
         <v>36</v>
       </c>
       <c r="B99" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C99" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D99" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F99" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3530,16 +3630,16 @@
         <v>36</v>
       </c>
       <c r="B100" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C100" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D100" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F100" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3547,16 +3647,16 @@
         <v>36</v>
       </c>
       <c r="B101" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C101" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D101" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F101" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3564,16 +3664,16 @@
         <v>39</v>
       </c>
       <c r="B102" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C102" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D102" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F102" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3581,16 +3681,16 @@
         <v>39</v>
       </c>
       <c r="B103" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C103" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D103" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F103" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3598,16 +3698,16 @@
         <v>39</v>
       </c>
       <c r="B104" t="s">
+        <v>143</v>
+      </c>
+      <c r="C104" t="s">
+        <v>79</v>
+      </c>
+      <c r="D104" t="s">
+        <v>80</v>
+      </c>
+      <c r="F104" t="s">
         <v>134</v>
-      </c>
-      <c r="C104" t="s">
-        <v>70</v>
-      </c>
-      <c r="D104" t="s">
-        <v>71</v>
-      </c>
-      <c r="F104" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3615,16 +3715,16 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C105" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D105" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F105" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3632,16 +3732,16 @@
         <v>39</v>
       </c>
       <c r="B106" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C106" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D106" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F106" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3649,16 +3749,16 @@
         <v>39</v>
       </c>
       <c r="B107" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C107" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D107" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F107" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3666,16 +3766,16 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C108" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D108" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F108" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3683,16 +3783,16 @@
         <v>42</v>
       </c>
       <c r="B109" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C109" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D109" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F109" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3700,16 +3800,16 @@
         <v>42</v>
       </c>
       <c r="B110" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C110" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D110" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F110" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3717,16 +3817,16 @@
         <v>42</v>
       </c>
       <c r="B111" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C111" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D111" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F111" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3734,16 +3834,16 @@
         <v>42</v>
       </c>
       <c r="B112" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C112" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D112" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F112" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3751,16 +3851,16 @@
         <v>42</v>
       </c>
       <c r="B113" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C113" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D113" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F113" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3768,16 +3868,16 @@
         <v>42</v>
       </c>
       <c r="B114" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C114" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D114" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F114" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3785,16 +3885,16 @@
         <v>42</v>
       </c>
       <c r="B115" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C115" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D115" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F115" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3802,16 +3902,16 @@
         <v>42</v>
       </c>
       <c r="B116" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C116" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D116" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F116" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3819,13 +3919,13 @@
         <v>42</v>
       </c>
       <c r="B117" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C117" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D117" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3833,16 +3933,16 @@
         <v>45</v>
       </c>
       <c r="B118" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C118" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D118" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F118" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3850,16 +3950,16 @@
         <v>45</v>
       </c>
       <c r="B119" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C119" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D119" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F119" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3867,16 +3967,16 @@
         <v>45</v>
       </c>
       <c r="B120" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C120" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D120" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F120" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3884,16 +3984,16 @@
         <v>45</v>
       </c>
       <c r="B121" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C121" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D121" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F121" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3901,16 +4001,16 @@
         <v>45</v>
       </c>
       <c r="B122" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C122" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D122" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F122" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3918,16 +4018,16 @@
         <v>45</v>
       </c>
       <c r="B123" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C123" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D123" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F123" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3935,16 +4035,16 @@
         <v>45</v>
       </c>
       <c r="B124" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C124" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D124" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F124" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3952,16 +4052,16 @@
         <v>45</v>
       </c>
       <c r="B125" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C125" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D125" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F125" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3969,16 +4069,16 @@
         <v>45</v>
       </c>
       <c r="B126" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C126" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D126" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F126" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3986,16 +4086,16 @@
         <v>45</v>
       </c>
       <c r="B127" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C127" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D127" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F127" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4003,16 +4103,16 @@
         <v>45</v>
       </c>
       <c r="B128" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C128" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D128" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F128" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4020,16 +4120,16 @@
         <v>45</v>
       </c>
       <c r="B129" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C129" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D129" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F129" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4037,16 +4137,16 @@
         <v>45</v>
       </c>
       <c r="B130" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C130" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D130" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F130" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4054,16 +4154,16 @@
         <v>45</v>
       </c>
       <c r="B131" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C131" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D131" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F131" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4071,16 +4171,16 @@
         <v>45</v>
       </c>
       <c r="B132" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C132" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D132" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F132" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4088,16 +4188,16 @@
         <v>45</v>
       </c>
       <c r="B133" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C133" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D133" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F133" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4105,16 +4205,16 @@
         <v>45</v>
       </c>
       <c r="B134" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C134" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D134" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F134" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4122,16 +4222,16 @@
         <v>48</v>
       </c>
       <c r="B135" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C135" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D135" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F135" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4139,16 +4239,16 @@
         <v>48</v>
       </c>
       <c r="B136" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C136" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D136" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F136" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4156,16 +4256,16 @@
         <v>48</v>
       </c>
       <c r="B137" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C137" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D137" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F137" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4173,16 +4273,16 @@
         <v>48</v>
       </c>
       <c r="B138" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C138" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D138" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F138" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4190,16 +4290,16 @@
         <v>48</v>
       </c>
       <c r="B139" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C139" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D139" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F139" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4207,16 +4307,16 @@
         <v>48</v>
       </c>
       <c r="B140" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C140" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D140" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F140" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4224,16 +4324,16 @@
         <v>48</v>
       </c>
       <c r="B141" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C141" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D141" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F141" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4241,16 +4341,16 @@
         <v>48</v>
       </c>
       <c r="B142" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C142" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D142" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F142" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4258,16 +4358,16 @@
         <v>48</v>
       </c>
       <c r="B143" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C143" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D143" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F143" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4275,16 +4375,16 @@
         <v>48</v>
       </c>
       <c r="B144" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C144" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D144" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F144" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4292,16 +4392,16 @@
         <v>48</v>
       </c>
       <c r="B145" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C145" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D145" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F145" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4309,16 +4409,16 @@
         <v>52</v>
       </c>
       <c r="B146" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C146" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D146" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F146" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4326,16 +4426,16 @@
         <v>52</v>
       </c>
       <c r="B147" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C147" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D147" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F147" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4343,16 +4443,16 @@
         <v>52</v>
       </c>
       <c r="B148" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C148" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D148" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F148" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4360,16 +4460,16 @@
         <v>52</v>
       </c>
       <c r="B149" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C149" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D149" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F149" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4377,16 +4477,16 @@
         <v>52</v>
       </c>
       <c r="B150" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C150" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D150" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F150" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4394,13 +4494,13 @@
         <v>52</v>
       </c>
       <c r="B151" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C151" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D151" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4408,16 +4508,16 @@
         <v>55</v>
       </c>
       <c r="B152" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C152" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D152" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F152" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4425,16 +4525,16 @@
         <v>55</v>
       </c>
       <c r="B153" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C153" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D153" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F153" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4442,16 +4542,16 @@
         <v>55</v>
       </c>
       <c r="B154" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C154" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D154" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F154" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4459,16 +4559,16 @@
         <v>55</v>
       </c>
       <c r="B155" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C155" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D155" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F155" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4476,16 +4576,16 @@
         <v>55</v>
       </c>
       <c r="B156" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C156" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D156" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F156" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4493,16 +4593,16 @@
         <v>55</v>
       </c>
       <c r="B157" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C157" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D157" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F157" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4510,13 +4610,13 @@
         <v>58</v>
       </c>
       <c r="B158" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C158" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D158" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4524,13 +4624,13 @@
         <v>58</v>
       </c>
       <c r="B159" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C159" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D159" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4538,13 +4638,13 @@
         <v>58</v>
       </c>
       <c r="B160" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C160" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D160" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4552,13 +4652,13 @@
         <v>58</v>
       </c>
       <c r="B161" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C161" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D161" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4566,13 +4666,13 @@
         <v>58</v>
       </c>
       <c r="B162" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C162" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D162" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4580,13 +4680,13 @@
         <v>58</v>
       </c>
       <c r="B163" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C163" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D163" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4594,13 +4694,13 @@
         <v>58</v>
       </c>
       <c r="B164" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="C164" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D164" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4608,13 +4708,13 @@
         <v>58</v>
       </c>
       <c r="B165" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C165" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D165" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4622,13 +4722,13 @@
         <v>58</v>
       </c>
       <c r="B166" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C166" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D166" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4636,13 +4736,223 @@
         <v>58</v>
       </c>
       <c r="B167" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C167" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D167" t="s">
-        <v>71</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>61</v>
+      </c>
+      <c r="B168" t="s">
+        <v>102</v>
+      </c>
+      <c r="C168" t="s">
+        <v>103</v>
+      </c>
+      <c r="D168" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>61</v>
+      </c>
+      <c r="B169" t="s">
+        <v>104</v>
+      </c>
+      <c r="C169" t="s">
+        <v>75</v>
+      </c>
+      <c r="D169" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>61</v>
+      </c>
+      <c r="B170" t="s">
+        <v>106</v>
+      </c>
+      <c r="C170" t="s">
+        <v>75</v>
+      </c>
+      <c r="D170" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>61</v>
+      </c>
+      <c r="B171" t="s">
+        <v>165</v>
+      </c>
+      <c r="C171" t="s">
+        <v>75</v>
+      </c>
+      <c r="D171" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>61</v>
+      </c>
+      <c r="B172" t="s">
+        <v>166</v>
+      </c>
+      <c r="C172" t="s">
+        <v>75</v>
+      </c>
+      <c r="D172" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>61</v>
+      </c>
+      <c r="B173" t="s">
+        <v>167</v>
+      </c>
+      <c r="C173" t="s">
+        <v>75</v>
+      </c>
+      <c r="D173" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>61</v>
+      </c>
+      <c r="B174" t="s">
+        <v>168</v>
+      </c>
+      <c r="C174" t="s">
+        <v>75</v>
+      </c>
+      <c r="D174" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>61</v>
+      </c>
+      <c r="B175" t="s">
+        <v>169</v>
+      </c>
+      <c r="C175" t="s">
+        <v>75</v>
+      </c>
+      <c r="D175" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>61</v>
+      </c>
+      <c r="B176" t="s">
+        <v>170</v>
+      </c>
+      <c r="C176" t="s">
+        <v>75</v>
+      </c>
+      <c r="D176" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>66</v>
+      </c>
+      <c r="B177" t="s">
+        <v>135</v>
+      </c>
+      <c r="C177" t="s">
+        <v>75</v>
+      </c>
+      <c r="D177" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>66</v>
+      </c>
+      <c r="B178" t="s">
+        <v>147</v>
+      </c>
+      <c r="C178" t="s">
+        <v>75</v>
+      </c>
+      <c r="D178" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>66</v>
+      </c>
+      <c r="B179" t="s">
+        <v>171</v>
+      </c>
+      <c r="C179" t="s">
+        <v>75</v>
+      </c>
+      <c r="D179" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>66</v>
+      </c>
+      <c r="B180" t="s">
+        <v>165</v>
+      </c>
+      <c r="C180" t="s">
+        <v>75</v>
+      </c>
+      <c r="D180" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>66</v>
+      </c>
+      <c r="B181" t="s">
+        <v>172</v>
+      </c>
+      <c r="C181" t="s">
+        <v>75</v>
+      </c>
+      <c r="D181" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>66</v>
+      </c>
+      <c r="B182" t="s">
+        <v>173</v>
+      </c>
+      <c r="C182" t="s">
+        <v>75</v>
+      </c>
+      <c r="D182" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -4658,10 +4968,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="$A26:$XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -4680,19 +4990,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="F1" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -4703,19 +5013,19 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E2" s="1">
         <v>603777</v>
       </c>
       <c r="G2" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4723,22 +5033,22 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="F3" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="G3" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4746,19 +5056,19 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D4" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="E4" s="1">
         <v>20210301</v>
       </c>
       <c r="G4" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4766,19 +5076,19 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="E5" s="1">
         <v>20210616</v>
       </c>
       <c r="G5" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4786,19 +5096,19 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D6" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="F6" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="G6" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4806,13 +5116,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E7" s="1">
         <v>603777</v>
@@ -4823,19 +5133,19 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="C8" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E8" s="1">
         <v>603777</v>
       </c>
       <c r="G8" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4843,19 +5153,19 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="C9" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D9" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="E9" s="1">
         <v>20210301</v>
       </c>
       <c r="G9" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4863,19 +5173,19 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="C10" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D10" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="E10" s="1">
         <v>20210616</v>
       </c>
       <c r="G10" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4883,19 +5193,19 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="C11" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="F11" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="G11" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4903,19 +5213,19 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="C12" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E12" s="1">
         <v>603777</v>
       </c>
       <c r="G12" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4923,19 +5233,19 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="C13" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D13" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="E13" s="1">
         <v>20210301</v>
       </c>
       <c r="G13" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4943,19 +5253,19 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="C14" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D14" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="E14" s="1">
         <v>20210616</v>
       </c>
       <c r="G14" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4963,16 +5273,16 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="C15" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G15" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4980,22 +5290,22 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="C16" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D16" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="F16" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="G16" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -5003,19 +5313,19 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="C17" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D17" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="G17" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5023,19 +5333,19 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="C18" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E18" s="1">
         <v>603777</v>
       </c>
       <c r="G18" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -5043,19 +5353,19 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="C19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="E19" s="1">
         <v>20210301</v>
       </c>
       <c r="G19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -5063,19 +5373,19 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="C20" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D20" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="E20" s="1">
         <v>20210616</v>
       </c>
       <c r="G20" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -5083,22 +5393,22 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="C21" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D21" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="F21" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="G21" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -5106,19 +5416,19 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="C22" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D22" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="F22" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="G22" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -5126,19 +5436,19 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="C23" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E23" s="1">
         <v>603777</v>
       </c>
       <c r="G23" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -5146,19 +5456,19 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="C24" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D24" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="E24" s="1">
         <v>20210301</v>
       </c>
       <c r="G24" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -5166,19 +5476,19 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="C25" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D25" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="E25" s="1">
         <v>20210616</v>
       </c>
       <c r="G25" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -5186,16 +5496,16 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="C26" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G26" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -5203,16 +5513,16 @@
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="C27" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -5220,16 +5530,16 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="C28" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G28" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -5237,16 +5547,16 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="C29" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -5254,16 +5564,16 @@
         <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="C30" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D30" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G30" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -5271,16 +5581,16 @@
         <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="C31" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G31" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -5288,16 +5598,16 @@
         <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="C32" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D32" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="G32" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -5305,16 +5615,50 @@
         <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="C33" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D33" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="G33" t="s">
-        <v>205</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" t="s">
+        <v>178</v>
+      </c>
+      <c r="D34" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/QSExt/Resource/AKShareDBInfo.xlsx
+++ b/QSExt/Resource/AKShareDBInfo.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hst/Project/QSExt/QSExt/Resource/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A508E6B-762C-9045-92FB-ACD3DC3545C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21540" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="5640" yWindow="2420" windowWidth="30360" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableInfo" sheetId="3" r:id="rId1"/>
@@ -12,15 +18,15 @@
     <sheet name="ArgInfo" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FactorInfo!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TableInfo!$A$1:$F$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FactorInfo!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="315">
   <si>
     <t>TableName</t>
   </si>
@@ -695,19 +701,337 @@
   </si>
   <si>
     <t>date="20220523"</t>
+  </si>
+  <si>
+    <t>基金基本信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fund_name_em</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeatureTable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公募基金</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方财富网-天天基金网-基金数据-所有基金的基本信息数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://fund.eastmoney.com/fund.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金代码</t>
+  </si>
+  <si>
+    <t>拼音缩写</t>
+  </si>
+  <si>
+    <t>基金简称</t>
+  </si>
+  <si>
+    <t>基金类型</t>
+  </si>
+  <si>
+    <t>拼音全称</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金基本信息-指数型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fund_info_index_em</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方财富网-天天基金网-基金数据-基金基本信息-指数型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://fund.eastmoney.com/trade/zs.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金名称</t>
+  </si>
+  <si>
+    <t>单位净值</t>
+  </si>
+  <si>
+    <t>日增长率</t>
+  </si>
+  <si>
+    <t>近1周</t>
+  </si>
+  <si>
+    <t>近1月</t>
+  </si>
+  <si>
+    <t>近3月</t>
+  </si>
+  <si>
+    <t>近6月</t>
+  </si>
+  <si>
+    <t>近1年</t>
+  </si>
+  <si>
+    <t>近2年</t>
+  </si>
+  <si>
+    <t>近3年</t>
+  </si>
+  <si>
+    <t>今年来</t>
+  </si>
+  <si>
+    <t>成立来</t>
+  </si>
+  <si>
+    <t>手续费</t>
+  </si>
+  <si>
+    <t>起购金额</t>
+  </si>
+  <si>
+    <t>跟踪标的</t>
+  </si>
+  <si>
+    <t>跟踪方式</t>
+  </si>
+  <si>
+    <t>indicator</t>
+  </si>
+  <si>
+    <t>symbol="全部"; choice of {"全部", "沪深指数", "行业主题", "大盘指数", "中盘指数", "小盘指数", "股票指数", "债券指数"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"arg_type": "SingleOption","option_range":["全部", "沪深指数", "行业主题", "大盘指数", "中盘指数", "小盘指数", "股票指数", "债券指数"]}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>indicator="全部"; choice of {"全部", "被动指数型", "增强指数型"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"arg_type": "SingleOption","option_range":["全部", "被动指数型", "增强指数型"]}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金申购状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fund_purchase_em</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方财富网站-天天基金网-基金数据-基金申购状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://fund.eastmoney.com/Fund_sgzt_bzdm.html#fcode,asc_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>申购状态</t>
+  </si>
+  <si>
+    <t>赎回状态</t>
+  </si>
+  <si>
+    <t>下一开放日</t>
+  </si>
+  <si>
+    <t>购买起点</t>
+  </si>
+  <si>
+    <t>日累计限定金额</t>
+  </si>
+  <si>
+    <t>最新净值或万份收益</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新净值或万份收益-报告时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金实时行情-东财</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fund_etf_spot_em</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方财富-ETF 实时行情</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://quote.eastmoney.com/center/gridlist.html#fund_etf</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金实时行情-新浪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fund_etf_category_sina</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新浪财经-基金列表及行情数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://vip.stock.finance.sina.com.cn/fund_center/index.html#jjhqetf</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>symbol="LOF基金"; choice of {"封闭式基金", "ETF基金", "LOF基金"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"arg_type": "SingleOption","option_range":["封闭式基金", "ETF基金", "LOF基金"]}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOF基金</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金分时行情-东财</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fund_etf_hist_min_em</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTRangeTable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方财富-ETF 分时行情</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://quote.eastmoney.com/sz159707.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>symbol='513500'; ETF 代码可以在 ak.fund_etf_spot_em() 中获取</t>
+  </si>
+  <si>
+    <t>adjust=''; choice of {'', 'qfq', 'hfq'}; '': 不复权, 'qfq': 前复权, 'hfq': 后复权, 其中 1 分钟数据返回近 5 个交易日数据且不复权</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>513500</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金净值-开放式基金-实时数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fund_open_fund_daily_em</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://fund.eastmoney.com/fund.html#os_0;isall_0;ft_;pt_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方财富网-天天基金网-基金数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金净值-开放式基金-历史数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fund_open_fund_info_em</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方财富网-天天基金网-基金数据-具体基金信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://fund.eastmoney.com/pingzhongdata/710001.js</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>累计净值</t>
+  </si>
+  <si>
+    <t>前交易日-单位净值</t>
+  </si>
+  <si>
+    <t>前交易日-累计净值</t>
+  </si>
+  <si>
+    <t>日增长值</t>
+  </si>
+  <si>
+    <t>净值日期</t>
+  </si>
+  <si>
+    <t>fund</t>
+  </si>
+  <si>
+    <t>fund="710001"; 需要基金代码, 可以通过调用 fund_open_fund_daily_em 获取</t>
+  </si>
+  <si>
+    <t>indicator="单位净值走势";</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位净值走势</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>710001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"arg_type": "SingleOption","option_range":["单位净值走势","累计净值走势","累计收益率走势","同类排名走势","同类排名百分比","分红送配详情","拆分详情"]}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -720,21 +1044,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -742,319 +1052,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1062,317 +1080,35 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1659,30 +1395,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.2" customWidth="1"/>
-    <col min="2" max="2" width="14.2666666666667" customWidth="1"/>
-    <col min="3" max="3" width="6.86666666666667" customWidth="1"/>
-    <col min="4" max="4" width="10.4666666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.66666666666667" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1695,10 +1430,10 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1718,11 +1453,11 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1739,7 +1474,7 @@
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1756,7 +1491,7 @@
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1770,11 +1505,11 @@
       <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1791,7 +1526,7 @@
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1808,7 +1543,7 @@
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1825,7 +1560,7 @@
       <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1842,7 +1577,7 @@
       <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1862,7 +1597,7 @@
       <c r="F10" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1873,7 +1608,7 @@
       <c r="B11" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1884,7 +1619,7 @@
       <c r="B12" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1895,7 +1630,7 @@
       <c r="B13" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1906,7 +1641,7 @@
       <c r="B14" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1920,7 +1655,7 @@
       <c r="E15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1934,7 +1669,7 @@
       <c r="E16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1948,7 +1683,7 @@
       <c r="E17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1962,7 +1697,7 @@
       <c r="E18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1982,7 +1717,7 @@
       <c r="F19" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2002,61 +1737,226 @@
       <c r="F20" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="3" t="s">
         <v>69</v>
       </c>
     </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F5">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:F5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="http://quote.eastmoney.com/concept/sh603777.html?from=classic"/>
-    <hyperlink ref="G3" r:id="rId2" display="http://quote.eastmoney.com/center/gridlist.html#hs_a_board"/>
-    <hyperlink ref="G5" r:id="rId1" display="http://quote.eastmoney.com/concept/sh603777.html?from=classic"/>
-    <hyperlink ref="G6" r:id="rId3" display="https://finance.sina.com.cn/realstock/company/sh600006/nc.shtml"/>
-    <hyperlink ref="G4" r:id="rId4" display="http://vip.stock.finance.sina.com.cn/mkt/#hs_a"/>
-    <hyperlink ref="G7" r:id="rId5" display="http://quotes.money.163.com/trade/lsjysj_601318.html?year=2022&amp;season=2"/>
-    <hyperlink ref="G8" r:id="rId6" display="http://finance.sina.com.cn/realstock/company/sh600519/nc.shtml"/>
-    <hyperlink ref="G9" r:id="rId1" display="http://quote.eastmoney.com/concept/sh603777.html?from=classic"/>
-    <hyperlink ref="G10" r:id="rId1" display="http://quote.eastmoney.com/concept/sh603777.html?from=classic"/>
-    <hyperlink ref="G11" r:id="rId7" display="http://gu.qq.com/sz300494/gp/detail"/>
-    <hyperlink ref="G12" r:id="rId8" display="http://quotes.money.163.com/trade/cjmx_000001.html#01b05"/>
-    <hyperlink ref="G13" r:id="rId9" display="http://data.10jqka.com.cn/ipo/syg/"/>
-    <hyperlink ref="G14" r:id="rId10" display="http://quote.eastmoney.com/center/gridlist.html#staq_net_board"/>
-    <hyperlink ref="G15" r:id="rId11" display="http://vip.stock.finance.sina.com.cn/mkt/#hs_s"/>
-    <hyperlink ref="G16" r:id="rId12" display="https://finance.sina.com.cn/realstock/company/sz399552/nc.shtml"/>
-    <hyperlink ref="G18" r:id="rId13" display="http://stockdata.stock.hexun.com/zrbg/Plate.aspx?date=2010-12-31#"/>
-    <hyperlink ref="G17" r:id="rId14" display="http://gu.qq.com/sh000919/zs"/>
-    <hyperlink ref="G19" r:id="rId15" display="http://data.eastmoney.com/tfpxx/"/>
-    <hyperlink ref="G20" r:id="rId16" display="https://gushitong.baidu.com/calendar"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" location="hs_a_board" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G4" r:id="rId5" location="hs_a" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G12" r:id="rId11" location="01b05" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G14" r:id="rId13" location="staq_net_board" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G15" r:id="rId14" location="hs_s" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G17" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G21" r:id="rId20" xr:uid="{31F2D70A-1DF9-AA4A-B18C-E1B9780076C9}"/>
+    <hyperlink ref="G22" r:id="rId21" xr:uid="{545826D3-5E2B-4A43-A233-D95644F38ED9}"/>
+    <hyperlink ref="G23" r:id="rId22" location="fcode,asc_1" xr:uid="{3E6EB43D-FFB6-8245-978A-CF19D60CF4EB}"/>
+    <hyperlink ref="G24" r:id="rId23" location="fund_etf" xr:uid="{EF42CC4A-8AC8-6748-9A16-58D714F14EE8}"/>
+    <hyperlink ref="G25" r:id="rId24" location="jjhqetf" xr:uid="{305EDF3B-76F4-8D42-A0CF-116B92C6196F}"/>
+    <hyperlink ref="G26" r:id="rId25" xr:uid="{5C4F9EA6-3B61-CE46-A0A3-C2D9508D074E}"/>
+    <hyperlink ref="G27" r:id="rId26" location="os_0;isall_0;ft_;pt_1" xr:uid="{B31C78C2-B166-8942-B1E1-D79C7A19E6AE}"/>
+    <hyperlink ref="G28" r:id="rId27" xr:uid="{DC054D40-75E2-8645-9828-42ADB749C2BE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F182"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="E166" sqref="E166"/>
+    <sheetView topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="A266" sqref="A266"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="17.8755555555556" customWidth="1"/>
-    <col min="2" max="2" width="10.3733333333333" customWidth="1"/>
-    <col min="3" max="3" width="11.5022222222222" customWidth="1"/>
-    <col min="4" max="4" width="12.5022222222222" customWidth="1"/>
-    <col min="5" max="5" width="14.8755555555556" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1244444444444" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" ht="15" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2263,7 +2163,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2277,7 +2177,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2291,7 +2191,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2305,7 +2205,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -2319,7 +2219,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -2333,7 +2233,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -2364,7 +2264,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -2429,7 +2329,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -2443,7 +2343,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -2457,7 +2357,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -2471,7 +2371,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -2485,7 +2385,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -2516,7 +2416,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -2530,7 +2430,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -2578,7 +2478,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -2643,7 +2543,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -2657,7 +2557,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -2671,7 +2571,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -2685,7 +2585,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -2716,7 +2616,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -2730,7 +2630,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -2744,7 +2644,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -2758,7 +2658,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -2772,7 +2672,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -2786,7 +2686,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -3225,7 +3125,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>28</v>
       </c>
@@ -3239,7 +3139,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>28</v>
       </c>
@@ -3253,7 +3153,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>28</v>
       </c>
@@ -3267,7 +3167,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>28</v>
       </c>
@@ -3281,7 +3181,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>28</v>
       </c>
@@ -3295,7 +3195,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>28</v>
       </c>
@@ -3309,7 +3209,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>31</v>
       </c>
@@ -3323,7 +3223,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>31</v>
       </c>
@@ -3337,7 +3237,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>31</v>
       </c>
@@ -3351,7 +3251,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>31</v>
       </c>
@@ -3365,7 +3265,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>31</v>
       </c>
@@ -3379,7 +3279,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>31</v>
       </c>
@@ -3393,7 +3293,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -3407,7 +3307,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>31</v>
       </c>
@@ -3914,7 +3814,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>42</v>
       </c>
@@ -4489,7 +4389,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:6">
       <c r="A151" t="s">
         <v>52</v>
       </c>
@@ -4605,7 +4505,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:6">
       <c r="A158" t="s">
         <v>58</v>
       </c>
@@ -4619,7 +4519,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:6">
       <c r="A159" t="s">
         <v>58</v>
       </c>
@@ -4633,7 +4533,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:6">
       <c r="A160" t="s">
         <v>58</v>
       </c>
@@ -4871,7 +4771,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:6">
       <c r="A177" t="s">
         <v>66</v>
       </c>
@@ -4885,7 +4785,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:6">
       <c r="A178" t="s">
         <v>66</v>
       </c>
@@ -4899,7 +4799,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:6">
       <c r="A179" t="s">
         <v>66</v>
       </c>
@@ -4913,7 +4813,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:6">
       <c r="A180" t="s">
         <v>66</v>
       </c>
@@ -4927,7 +4827,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:6">
       <c r="A181" t="s">
         <v>66</v>
       </c>
@@ -4941,7 +4841,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:6">
       <c r="A182" t="s">
         <v>66</v>
       </c>
@@ -4955,34 +4855,1261 @@
         <v>80</v>
       </c>
     </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B183" t="s">
+        <v>231</v>
+      </c>
+      <c r="C183" t="s">
+        <v>75</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B184" t="s">
+        <v>232</v>
+      </c>
+      <c r="C184" t="s">
+        <v>75</v>
+      </c>
+      <c r="D184" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B185" t="s">
+        <v>233</v>
+      </c>
+      <c r="C185" t="s">
+        <v>75</v>
+      </c>
+      <c r="D185" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B186" t="s">
+        <v>234</v>
+      </c>
+      <c r="C186" t="s">
+        <v>75</v>
+      </c>
+      <c r="D186" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B187" t="s">
+        <v>235</v>
+      </c>
+      <c r="C187" t="s">
+        <v>75</v>
+      </c>
+      <c r="D187" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B188" t="s">
+        <v>231</v>
+      </c>
+      <c r="C188" t="s">
+        <v>75</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B189" t="s">
+        <v>241</v>
+      </c>
+      <c r="C189" t="s">
+        <v>75</v>
+      </c>
+      <c r="D189" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B190" t="s">
+        <v>242</v>
+      </c>
+      <c r="C190" t="s">
+        <v>79</v>
+      </c>
+      <c r="D190" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B191" t="s">
+        <v>74</v>
+      </c>
+      <c r="C191" t="s">
+        <v>75</v>
+      </c>
+      <c r="D191" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B192" t="s">
+        <v>243</v>
+      </c>
+      <c r="C192" t="s">
+        <v>79</v>
+      </c>
+      <c r="D192" t="s">
+        <v>80</v>
+      </c>
+      <c r="F192" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B193" t="s">
+        <v>244</v>
+      </c>
+      <c r="C193" t="s">
+        <v>79</v>
+      </c>
+      <c r="D193" t="s">
+        <v>80</v>
+      </c>
+      <c r="F193" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B194" t="s">
+        <v>245</v>
+      </c>
+      <c r="C194" t="s">
+        <v>79</v>
+      </c>
+      <c r="D194" t="s">
+        <v>80</v>
+      </c>
+      <c r="F194" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B195" t="s">
+        <v>246</v>
+      </c>
+      <c r="C195" t="s">
+        <v>79</v>
+      </c>
+      <c r="D195" t="s">
+        <v>80</v>
+      </c>
+      <c r="F195" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B196" t="s">
+        <v>247</v>
+      </c>
+      <c r="C196" t="s">
+        <v>79</v>
+      </c>
+      <c r="D196" t="s">
+        <v>80</v>
+      </c>
+      <c r="F196" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B197" t="s">
+        <v>248</v>
+      </c>
+      <c r="C197" t="s">
+        <v>79</v>
+      </c>
+      <c r="D197" t="s">
+        <v>80</v>
+      </c>
+      <c r="F197" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B198" t="s">
+        <v>249</v>
+      </c>
+      <c r="C198" t="s">
+        <v>79</v>
+      </c>
+      <c r="D198" t="s">
+        <v>80</v>
+      </c>
+      <c r="F198" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B199" t="s">
+        <v>250</v>
+      </c>
+      <c r="C199" t="s">
+        <v>79</v>
+      </c>
+      <c r="D199" t="s">
+        <v>80</v>
+      </c>
+      <c r="F199" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B200" t="s">
+        <v>251</v>
+      </c>
+      <c r="C200" t="s">
+        <v>79</v>
+      </c>
+      <c r="D200" t="s">
+        <v>80</v>
+      </c>
+      <c r="F200" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B201" t="s">
+        <v>252</v>
+      </c>
+      <c r="C201" t="s">
+        <v>79</v>
+      </c>
+      <c r="D201" t="s">
+        <v>80</v>
+      </c>
+      <c r="F201" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B202" t="s">
+        <v>253</v>
+      </c>
+      <c r="C202" t="s">
+        <v>79</v>
+      </c>
+      <c r="D202" t="s">
+        <v>80</v>
+      </c>
+      <c r="F202" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B203" t="s">
+        <v>254</v>
+      </c>
+      <c r="C203" t="s">
+        <v>75</v>
+      </c>
+      <c r="D203" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B204" t="s">
+        <v>255</v>
+      </c>
+      <c r="C204" t="s">
+        <v>75</v>
+      </c>
+      <c r="D204" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B205" t="s">
+        <v>256</v>
+      </c>
+      <c r="C205" t="s">
+        <v>75</v>
+      </c>
+      <c r="D205" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B206" t="s">
+        <v>102</v>
+      </c>
+      <c r="C206" t="s">
+        <v>75</v>
+      </c>
+      <c r="D206" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B207" t="s">
+        <v>231</v>
+      </c>
+      <c r="C207" t="s">
+        <v>75</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B208" t="s">
+        <v>233</v>
+      </c>
+      <c r="C208" t="s">
+        <v>75</v>
+      </c>
+      <c r="D208" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B209" t="s">
+        <v>234</v>
+      </c>
+      <c r="C209" t="s">
+        <v>75</v>
+      </c>
+      <c r="D209" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C210" t="s">
+        <v>79</v>
+      </c>
+      <c r="D210" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C211" t="s">
+        <v>75</v>
+      </c>
+      <c r="D211" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B212" t="s">
+        <v>267</v>
+      </c>
+      <c r="C212" t="s">
+        <v>75</v>
+      </c>
+      <c r="D212" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B213" t="s">
+        <v>268</v>
+      </c>
+      <c r="C213" t="s">
+        <v>75</v>
+      </c>
+      <c r="D213" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B214" t="s">
+        <v>269</v>
+      </c>
+      <c r="C214" t="s">
+        <v>75</v>
+      </c>
+      <c r="D214" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B215" t="s">
+        <v>270</v>
+      </c>
+      <c r="C215" t="s">
+        <v>79</v>
+      </c>
+      <c r="D215" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B216" t="s">
+        <v>271</v>
+      </c>
+      <c r="C216" t="s">
+        <v>79</v>
+      </c>
+      <c r="D216" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B217" t="s">
+        <v>253</v>
+      </c>
+      <c r="C217" t="s">
+        <v>79</v>
+      </c>
+      <c r="D217" t="s">
+        <v>80</v>
+      </c>
+      <c r="F217" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B218" t="s">
+        <v>104</v>
+      </c>
+      <c r="C218" t="s">
+        <v>75</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B219" t="s">
+        <v>106</v>
+      </c>
+      <c r="C219" t="s">
+        <v>75</v>
+      </c>
+      <c r="D219" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B220" t="s">
+        <v>107</v>
+      </c>
+      <c r="C220" t="s">
+        <v>79</v>
+      </c>
+      <c r="D220" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B221" t="s">
+        <v>96</v>
+      </c>
+      <c r="C221" t="s">
+        <v>79</v>
+      </c>
+      <c r="D221" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B222" t="s">
+        <v>95</v>
+      </c>
+      <c r="C222" t="s">
+        <v>79</v>
+      </c>
+      <c r="D222" t="s">
+        <v>80</v>
+      </c>
+      <c r="F222" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B223" t="s">
+        <v>88</v>
+      </c>
+      <c r="C223" t="s">
+        <v>79</v>
+      </c>
+      <c r="D223" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B224" t="s">
+        <v>91</v>
+      </c>
+      <c r="C224" t="s">
+        <v>79</v>
+      </c>
+      <c r="D224" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B225" t="s">
+        <v>81</v>
+      </c>
+      <c r="C225" t="s">
+        <v>79</v>
+      </c>
+      <c r="D225" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B226" t="s">
+        <v>85</v>
+      </c>
+      <c r="C226" t="s">
+        <v>79</v>
+      </c>
+      <c r="D226" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B227" t="s">
+        <v>87</v>
+      </c>
+      <c r="C227" t="s">
+        <v>79</v>
+      </c>
+      <c r="D227" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B228" t="s">
+        <v>109</v>
+      </c>
+      <c r="C228" t="s">
+        <v>79</v>
+      </c>
+      <c r="D228" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B229" t="s">
+        <v>97</v>
+      </c>
+      <c r="C229" t="s">
+        <v>79</v>
+      </c>
+      <c r="D229" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B230" t="s">
+        <v>114</v>
+      </c>
+      <c r="C230" t="s">
+        <v>103</v>
+      </c>
+      <c r="D230" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B231" t="s">
+        <v>113</v>
+      </c>
+      <c r="C231" t="s">
+        <v>103</v>
+      </c>
+      <c r="D231" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B232" t="s">
+        <v>104</v>
+      </c>
+      <c r="C232" t="s">
+        <v>75</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B233" t="s">
+        <v>106</v>
+      </c>
+      <c r="C233" t="s">
+        <v>75</v>
+      </c>
+      <c r="D233" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B234" t="s">
+        <v>107</v>
+      </c>
+      <c r="C234" t="s">
+        <v>79</v>
+      </c>
+      <c r="D234" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B235" t="s">
+        <v>96</v>
+      </c>
+      <c r="C235" t="s">
+        <v>79</v>
+      </c>
+      <c r="D235" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B236" t="s">
+        <v>95</v>
+      </c>
+      <c r="C236" t="s">
+        <v>79</v>
+      </c>
+      <c r="D236" t="s">
+        <v>80</v>
+      </c>
+      <c r="F236" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B237" t="s">
+        <v>119</v>
+      </c>
+      <c r="C237" t="s">
+        <v>79</v>
+      </c>
+      <c r="D237" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B238" t="s">
+        <v>120</v>
+      </c>
+      <c r="C238" t="s">
+        <v>79</v>
+      </c>
+      <c r="D238" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B239" t="s">
+        <v>109</v>
+      </c>
+      <c r="C239" t="s">
+        <v>79</v>
+      </c>
+      <c r="D239" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B240" t="s">
+        <v>108</v>
+      </c>
+      <c r="C240" t="s">
+        <v>79</v>
+      </c>
+      <c r="D240" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B241" t="s">
+        <v>84</v>
+      </c>
+      <c r="C241" t="s">
+        <v>79</v>
+      </c>
+      <c r="D241" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B242" t="s">
+        <v>86</v>
+      </c>
+      <c r="C242" t="s">
+        <v>79</v>
+      </c>
+      <c r="D242" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B243" t="s">
+        <v>88</v>
+      </c>
+      <c r="C243" t="s">
+        <v>103</v>
+      </c>
+      <c r="D243" t="s">
+        <v>80</v>
+      </c>
+      <c r="F243" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B244" t="s">
+        <v>91</v>
+      </c>
+      <c r="C244" t="s">
+        <v>103</v>
+      </c>
+      <c r="D244" t="s">
+        <v>80</v>
+      </c>
+      <c r="F244" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B245" t="s">
+        <v>139</v>
+      </c>
+      <c r="C245" t="s">
+        <v>75</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B246" t="s">
+        <v>78</v>
+      </c>
+      <c r="C246" t="s">
+        <v>79</v>
+      </c>
+      <c r="D246" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B247" t="s">
+        <v>82</v>
+      </c>
+      <c r="C247" t="s">
+        <v>79</v>
+      </c>
+      <c r="D247" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B248" t="s">
+        <v>84</v>
+      </c>
+      <c r="C248" t="s">
+        <v>79</v>
+      </c>
+      <c r="D248" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B249" t="s">
+        <v>86</v>
+      </c>
+      <c r="C249" t="s">
+        <v>79</v>
+      </c>
+      <c r="D249" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B250" t="s">
+        <v>88</v>
+      </c>
+      <c r="C250" t="s">
+        <v>79</v>
+      </c>
+      <c r="D250" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B251" t="s">
+        <v>91</v>
+      </c>
+      <c r="C251" t="s">
+        <v>79</v>
+      </c>
+      <c r="D251" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B252" t="s">
+        <v>107</v>
+      </c>
+      <c r="C252" t="s">
+        <v>79</v>
+      </c>
+      <c r="D252" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B253" t="s">
+        <v>231</v>
+      </c>
+      <c r="C253" t="s">
+        <v>178</v>
+      </c>
+      <c r="D253" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B254" t="s">
+        <v>233</v>
+      </c>
+      <c r="C254" t="s">
+        <v>178</v>
+      </c>
+      <c r="D254" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B255" t="s">
+        <v>242</v>
+      </c>
+      <c r="C255" t="s">
+        <v>303</v>
+      </c>
+      <c r="D255" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B256" t="s">
+        <v>304</v>
+      </c>
+      <c r="C256" t="s">
+        <v>303</v>
+      </c>
+      <c r="D256" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B257" t="s">
+        <v>305</v>
+      </c>
+      <c r="C257" t="s">
+        <v>303</v>
+      </c>
+      <c r="D257" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B258" t="s">
+        <v>306</v>
+      </c>
+      <c r="C258" t="s">
+        <v>303</v>
+      </c>
+      <c r="D258" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B259" t="s">
+        <v>307</v>
+      </c>
+      <c r="C259" t="s">
+        <v>303</v>
+      </c>
+      <c r="D259" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B260" t="s">
+        <v>243</v>
+      </c>
+      <c r="C260" t="s">
+        <v>303</v>
+      </c>
+      <c r="D260" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B261" t="s">
+        <v>267</v>
+      </c>
+      <c r="C261" t="s">
+        <v>178</v>
+      </c>
+      <c r="D261" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B262" t="s">
+        <v>268</v>
+      </c>
+      <c r="C262" t="s">
+        <v>178</v>
+      </c>
+      <c r="D262" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B263" t="s">
+        <v>253</v>
+      </c>
+      <c r="C263" t="s">
+        <v>178</v>
+      </c>
+      <c r="D263" t="s">
+        <v>80</v>
+      </c>
+      <c r="F263" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B264" t="s">
+        <v>308</v>
+      </c>
+      <c r="C264" t="s">
+        <v>75</v>
+      </c>
+      <c r="D264" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B265" t="s">
+        <v>242</v>
+      </c>
+      <c r="C265" t="s">
+        <v>79</v>
+      </c>
+      <c r="D265" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B266" t="s">
+        <v>243</v>
+      </c>
+      <c r="C266" t="s">
+        <v>79</v>
+      </c>
+      <c r="D266" t="s">
+        <v>80</v>
+      </c>
+      <c r="F266" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F1">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="$A26:$XFD29"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="18.2488888888889" customWidth="1"/>
-    <col min="2" max="2" width="11.5022222222222" customWidth="1"/>
-    <col min="3" max="3" width="9.37333333333333" customWidth="1"/>
-    <col min="4" max="4" width="10.3733333333333" customWidth="1"/>
-    <col min="5" max="5" width="7.26666666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="74.3733333333333" customWidth="1"/>
+    <col min="7" max="7" width="74.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -5111,7 +6238,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -5661,8 +6788,223 @@
         <v>224</v>
       </c>
     </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B36" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D36" t="s">
+        <v>181</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B37" t="s">
+        <v>257</v>
+      </c>
+      <c r="C37" t="s">
+        <v>178</v>
+      </c>
+      <c r="D37" t="s">
+        <v>181</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B38" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" t="s">
+        <v>178</v>
+      </c>
+      <c r="D38" t="s">
+        <v>181</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B39" t="s">
+        <v>177</v>
+      </c>
+      <c r="C39" t="s">
+        <v>178</v>
+      </c>
+      <c r="D39" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G39" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B40" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" t="s">
+        <v>178</v>
+      </c>
+      <c r="D40" t="s">
+        <v>186</v>
+      </c>
+      <c r="E40" s="1">
+        <v>20210301</v>
+      </c>
+      <c r="G40" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B41" t="s">
+        <v>188</v>
+      </c>
+      <c r="C41" t="s">
+        <v>178</v>
+      </c>
+      <c r="D41" t="s">
+        <v>189</v>
+      </c>
+      <c r="E41" s="1">
+        <v>20210616</v>
+      </c>
+      <c r="G41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B42" t="s">
+        <v>180</v>
+      </c>
+      <c r="C42" t="s">
+        <v>178</v>
+      </c>
+      <c r="D42" t="s">
+        <v>181</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F42" t="s">
+        <v>202</v>
+      </c>
+      <c r="G42" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B43" t="s">
+        <v>191</v>
+      </c>
+      <c r="C43" t="s">
+        <v>178</v>
+      </c>
+      <c r="D43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F43" t="s">
+        <v>192</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B44" t="s">
+        <v>309</v>
+      </c>
+      <c r="C44" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="G44" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B45" t="s">
+        <v>257</v>
+      </c>
+      <c r="C45" t="s">
+        <v>178</v>
+      </c>
+      <c r="D45" t="s">
+        <v>181</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>